--- a/all_output.xlsx
+++ b/all_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fidelio/Desktop/COMP4820/A1-COMP4820/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F46DCAB-BCDC-F847-A241-3CE4D203A569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23156B81-58D6-9444-88F3-26887FA9FBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5CF6D805-6587-B244-9460-DA5636AAFA7A}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -41,7 +41,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,6 +175,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF569CD6"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -518,9 +525,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -566,7 +575,23 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1206,7 +1231,644 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Increasing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Num of Patterns Result</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all_output!$A$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>all_output!$A$59:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-695E-E440-9A71-CF47DC72599F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all_output!$B$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BruteForce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>all_output!$B$59:$B$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10.718999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.023000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.686999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-695E-E440-9A71-CF47DC72599F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all_output!$C$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BMH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>all_output!$C$59:$C$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.1779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.540999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-695E-E440-9A71-CF47DC72599F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all_output!$D$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BMH-Pattern-Alphabet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>all_output!$D$59:$D$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.8720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1619999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-695E-E440-9A71-CF47DC72599F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all_output!$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aho-corasick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>all_output!$E$59:$E$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.53180000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94079999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8420000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-695E-E440-9A71-CF47DC72599F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1555191375"/>
+        <c:axId val="1484608688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1555191375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1484608688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1484608688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1555191375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1749,64 +2411,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>5054</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>756920</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>820420</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D9AB3CC-9AA2-EDC4-B813-9E11AC669959}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10703534" y="91440"/>
-          <a:ext cx="8222006" cy="2362200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>370840</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>391160</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1814,6 +2935,42 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E0ACD8-2F07-A2CC-B2A6-488F787E0185}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>116840</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>574040</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281E0723-F224-2783-41DA-3F641E951137}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1833,23 +2990,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>10160</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>375920</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>151084</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>403803</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A4536F-74B0-5173-9114-5C80618CDAD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60B6C6A0-D461-9445-B47B-B34F8461C2EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,8 +3022,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10708640" y="2641600"/>
-          <a:ext cx="7772400" cy="2183084"/>
+          <a:off x="0" y="1016000"/>
+          <a:ext cx="7779963" cy="2235200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1877,23 +3034,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>151084</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>181564</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4789826C-C44D-3DF8-58AB-C877BD4CDF53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25F7FB32-FCDF-3345-BDEB-6D4B38917810}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1909,7 +3066,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10698480" y="5080000"/>
+          <a:off x="0" y="3281680"/>
           <a:ext cx="7772400" cy="2183084"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1921,23 +3078,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>177974</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171404</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8AF78C3-B0C5-F9DE-417B-A83CBAB57323}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16DEA49F-3D06-5B4D-B352-DCF7DDFEA549}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,8 +3110,140 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11490960" y="7518400"/>
+          <a:off x="0" y="5506720"/>
+          <a:ext cx="7772400" cy="2183084"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>5254</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305FB4C6-18C6-074A-8C33-8A3B17324D1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7752080"/>
           <a:ext cx="7772400" cy="2413174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>71272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B9E8B8-00D1-EFB1-0C38-108D1714DE49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12598400"/>
+          <a:ext cx="7772400" cy="2103272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>90316</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4C6248-C745-9EC3-F34D-7921E6590AC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14833600"/>
+          <a:ext cx="7772400" cy="2528716"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1967,13 +3256,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F438FD16-39C9-1841-A7AB-712D19EBA848}" name="Table1" displayName="Table1" ref="A1:E4" totalsRowShown="0" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F438FD16-39C9-1841-A7AB-712D19EBA848}" name="Table1" displayName="Table1" ref="A1:E4" totalsRowShown="0" tableBorderDxfId="1">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C9EB706E-D41D-3C41-8F43-C6160620AE50}" name=" "/>
     <tableColumn id="2" xr3:uid="{6A1A25CE-359A-574D-8A72-21D7479C5F06}" name="BruteForce"/>
     <tableColumn id="3" xr3:uid="{EBC26142-1712-3547-AB45-69FD321A4749}" name="BMH"/>
     <tableColumn id="4" xr3:uid="{0A0F0AEA-AB2C-854F-BB6C-D07E5769EBC7}" name="BMH-Pattern-Alphabet"/>
     <tableColumn id="5" xr3:uid="{3C94A039-0000-6C43-B053-B4217F4A89CF}" name="Aho-corasick"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F381515D-F5AE-C645-A504-3E1C322730BE}" name="Table13" displayName="Table13" ref="A58:E61" totalsRowShown="0" tableBorderDxfId="0">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{F5B35AB8-3630-1B43-A8AE-3B58014CA9A3}" name=" "/>
+    <tableColumn id="2" xr3:uid="{75B20B7A-51D4-0044-B0AA-6E7B359B5C9E}" name="BruteForce"/>
+    <tableColumn id="3" xr3:uid="{B9740447-A040-814F-9340-885816351AD5}" name="BMH"/>
+    <tableColumn id="4" xr3:uid="{FFBA703B-706E-B94A-9440-BCBBF3BA6740}" name="BMH-Pattern-Alphabet"/>
+    <tableColumn id="5" xr3:uid="{955E1215-8336-F24A-A161-DE7AD69DCED8}" name="Aho-corasick"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2296,10 +3598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416A1822-E986-7745-A0C9-F3582A6C4F1D}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2307,7 +3609,7 @@
     <col min="4" max="4" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2324,7 +3626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.25</v>
       </c>
@@ -2341,7 +3643,7 @@
         <v>0.53180000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.5</v>
       </c>
@@ -2358,7 +3660,7 @@
         <v>0.94079999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2372,14 +3674,89 @@
         <v>7.1619999999999999</v>
       </c>
       <c r="E4">
+        <v>1.8420000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L13" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>10.718999999999999</v>
+      </c>
+      <c r="C59">
+        <v>7.1779999999999999</v>
+      </c>
+      <c r="D59">
+        <v>1.8720000000000001</v>
+      </c>
+      <c r="E59">
+        <v>0.53180000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>51.023000000000003</v>
+      </c>
+      <c r="C60">
+        <v>36.540999999999997</v>
+      </c>
+      <c r="D60">
+        <v>3.5880000000000001</v>
+      </c>
+      <c r="E60">
+        <v>0.94079999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>10</v>
+      </c>
+      <c r="B61">
+        <v>99.686999999999998</v>
+      </c>
+      <c r="C61">
+        <v>63.4</v>
+      </c>
+      <c r="D61">
+        <v>7.1619999999999999</v>
+      </c>
+      <c r="E61">
         <v>1.8420000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/all_output.xlsx
+++ b/all_output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fidelio/Desktop/COMP4820/A1-COMP4820/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fidelio\Courses\COMP4820\Assignments\A1-COMP4820\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23156B81-58D6-9444-88F3-26887FA9FBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACA89BB-B94E-44C2-89EC-0A2489177A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5CF6D805-6587-B244-9460-DA5636AAFA7A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5CF6D805-6587-B244-9460-DA5636AAFA7A}"/>
   </bookViews>
   <sheets>
     <sheet name="all_output" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -41,7 +41,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -529,7 +529,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -575,7 +575,23 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="12"/>
+        </left>
+        <right style="thin">
+          <color indexed="12"/>
+        </right>
+        <top style="thin">
+          <color indexed="12"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="12"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1312,71 +1328,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>all_output!$A$58</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>all_output!$A$59:$A$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-695E-E440-9A71-CF47DC72599F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>all_output!$B$58</c:f>
@@ -1412,6 +1365,24 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>all_output!$A$59:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>all_output!$B$59:$B$61</c:f>
@@ -1439,7 +1410,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>all_output!$C$58</c:f>
@@ -1475,6 +1446,24 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>all_output!$A$59:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>all_output!$C$59:$C$61</c:f>
@@ -1502,7 +1491,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>all_output!$D$58</c:f>
@@ -1538,6 +1527,24 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>all_output!$A$59:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>all_output!$D$59:$D$61</c:f>
@@ -1545,13 +1552,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.8720000000000001</c:v>
+                  <c:v>5.5049999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5880000000000001</c:v>
+                  <c:v>27.504000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1619999999999999</c:v>
+                  <c:v>46.767000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,7 +1572,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>all_output!$E$58</c:f>
@@ -1601,6 +1608,24 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>all_output!$A$59:$A$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>all_output!$E$59:$E$61</c:f>
@@ -1608,13 +1633,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.53180000000000005</c:v>
+                  <c:v>1.4510000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94079999999999997</c:v>
+                  <c:v>1.61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8420000000000001</c:v>
+                  <c:v>1.8560000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1646,6 +1671,614 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1484608688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1484608688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1555191375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Increasing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Len of Patterns Result</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all_output!$B$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BruteForce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>all_output!$A$111:$A$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>all_output!$B$111:$B$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.8029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.819</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-57C8-4A50-9F75-55FF7B8000D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all_output!$C$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BMH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>all_output!$A$111:$A$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>all_output!$C$111:$C$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13.497999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4510000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-57C8-4A50-9F75-55FF7B8000D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all_output!$D$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BMH-Pattern-Alphabet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>all_output!$A$111:$A$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>all_output!$D$111:$D$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13.045999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3719999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-57C8-4A50-9F75-55FF7B8000D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all_output!$E$110</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aho-corasick</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>all_output!$A$111:$A$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>all_output!$E$111:$E$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.365</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3759999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-57C8-4A50-9F75-55FF7B8000D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1555191375"/>
+        <c:axId val="1484608688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1555191375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1908,6 +2541,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2412,6 +3085,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2954,16 +4130,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>116840</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>142240</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571109</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>156894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>574040</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
+      <xdr:colOff>193040</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>55294</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3252,11 +4428,313 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>196107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>603731</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7163FD5-0199-BBC3-0764-81E14CF842CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18594011"/>
+          <a:ext cx="8062539" cy="1481760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>168520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>445957</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>73270</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA23FA3-041C-CCF7-B8B6-BB4FF08816D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16983808"/>
+          <a:ext cx="7904765" cy="1487366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>29309</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>811302</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>44472</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2535A6-07EB-ED0B-BE6D-B4C7A6AC4B27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24164194"/>
+          <a:ext cx="9940648" cy="2389086"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>79567</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>28938</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F816D63-B62F-16C7-3A8A-BBE7E3FA090C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26706635"/>
+          <a:ext cx="8373644" cy="2600688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>512884</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>7326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>134815</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>103553</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14376216-2629-4227-A06B-6C6C6E179FB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>267045</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>48613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8E0C43-F0B3-3DDD-6FF4-6A496997CED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="29476212"/>
+          <a:ext cx="7725853" cy="1829055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>759367</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>3208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E13B726-70A3-6EB1-22BE-E877F4DBD331}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="31454481"/>
+          <a:ext cx="7382905" cy="1981477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F438FD16-39C9-1841-A7AB-712D19EBA848}" name="Table1" displayName="Table1" ref="A1:E4" totalsRowShown="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F438FD16-39C9-1841-A7AB-712D19EBA848}" name="Table1" displayName="Table1" ref="A1:E4" totalsRowShown="0" tableBorderDxfId="2">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C9EB706E-D41D-3C41-8F43-C6160620AE50}" name=" "/>
     <tableColumn id="2" xr3:uid="{6A1A25CE-359A-574D-8A72-21D7479C5F06}" name="BruteForce"/>
@@ -3269,13 +4747,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F381515D-F5AE-C645-A504-3E1C322730BE}" name="Table13" displayName="Table13" ref="A58:E61" totalsRowShown="0" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F381515D-F5AE-C645-A504-3E1C322730BE}" name="Table13" displayName="Table13" ref="A58:E61" totalsRowShown="0" tableBorderDxfId="1">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F5B35AB8-3630-1B43-A8AE-3B58014CA9A3}" name=" "/>
     <tableColumn id="2" xr3:uid="{75B20B7A-51D4-0044-B0AA-6E7B359B5C9E}" name="BruteForce"/>
     <tableColumn id="3" xr3:uid="{B9740447-A040-814F-9340-885816351AD5}" name="BMH"/>
     <tableColumn id="4" xr3:uid="{FFBA703B-706E-B94A-9440-BCBBF3BA6740}" name="BMH-Pattern-Alphabet"/>
     <tableColumn id="5" xr3:uid="{955E1215-8336-F24A-A161-DE7AD69DCED8}" name="Aho-corasick"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9B6768FC-F642-4B76-8E3A-5B9BDA09704F}" name="Table134" displayName="Table134" ref="A110:E113" totalsRowShown="0" tableBorderDxfId="0">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5DB74D0D-FFF0-4437-8CBF-9337208E3B7D}" name=" "/>
+    <tableColumn id="2" xr3:uid="{C1DE1C10-9A37-40DB-9ACE-1B080BDBE893}" name="BruteForce"/>
+    <tableColumn id="3" xr3:uid="{68B4D8BD-5947-47E8-8B53-5662934DABA9}" name="BMH"/>
+    <tableColumn id="4" xr3:uid="{13B25085-2F3F-4909-9C9E-F3384F09E14A}" name="BMH-Pattern-Alphabet"/>
+    <tableColumn id="5" xr3:uid="{959F7D23-64CE-4B91-9975-96A1EBFF092A}" name="Aho-corasick"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3598,18 +5089,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416A1822-E986-7745-A0C9-F3582A6C4F1D}">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3626,7 +5117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0.25</v>
       </c>
@@ -3643,7 +5134,7 @@
         <v>0.53180000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>0.5</v>
       </c>
@@ -3660,7 +5151,7 @@
         <v>0.94079999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3677,13 +5168,13 @@
         <v>1.8420000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="M9" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="L13" s="2"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -3700,8 +5191,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+    <row r="59" spans="1:5">
+      <c r="A59">
         <v>1</v>
       </c>
       <c r="B59">
@@ -3711,13 +5202,13 @@
         <v>7.1779999999999999</v>
       </c>
       <c r="D59">
-        <v>1.8720000000000001</v>
+        <v>5.5049999999999999</v>
       </c>
       <c r="E59">
-        <v>0.53180000000000005</v>
+        <v>1.4510000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>5</v>
       </c>
@@ -3728,14 +5219,14 @@
         <v>36.540999999999997</v>
       </c>
       <c r="D60">
-        <v>3.5880000000000001</v>
+        <v>27.504000000000001</v>
       </c>
       <c r="E60">
-        <v>0.94079999999999997</v>
+        <v>1.61</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+    <row r="61" spans="1:5">
+      <c r="A61">
         <v>10</v>
       </c>
       <c r="B61">
@@ -3745,18 +5236,91 @@
         <v>63.4</v>
       </c>
       <c r="D61">
-        <v>7.1619999999999999</v>
+        <v>46.767000000000003</v>
       </c>
       <c r="E61">
-        <v>1.8420000000000001</v>
+        <v>1.8560000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="3"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>7.8029999999999999</v>
+      </c>
+      <c r="C111">
+        <v>13.497999999999999</v>
+      </c>
+      <c r="D111">
+        <v>13.045999999999999</v>
+      </c>
+      <c r="E111">
+        <v>1.486</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>3</v>
+      </c>
+      <c r="B112">
+        <v>7.75</v>
+      </c>
+      <c r="C112">
+        <v>5.0880000000000001</v>
+      </c>
+      <c r="D112">
+        <v>5.0720000000000001</v>
+      </c>
+      <c r="E112">
+        <v>1.365</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>7</v>
+      </c>
+      <c r="B113">
+        <v>7.819</v>
+      </c>
+      <c r="C113">
+        <v>3.4510000000000001</v>
+      </c>
+      <c r="D113">
+        <v>3.3719999999999999</v>
+      </c>
+      <c r="E113">
+        <v>1.3759999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>